--- a/StatsAssignment#4/DJIASP500.xlsx
+++ b/StatsAssignment#4/DJIASP500.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\SMC\Teaching\Spring 2019\BUSAD 40\Assignment\Assignment 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevorcardoza/Documents/GitHub/Statistics/StatsAssignment#4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C2846C-BD62-4E72-BD5C-AD276096654A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4872C5-7D01-3B40-885C-DA3F30142E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Data!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Data!$B$1</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Data!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Data!$C$2:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -103,6 +110,968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>12360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12660</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13081</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13060</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D34-CC43-A9EB-3EF7159142C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1333304368"/>
+        <c:axId val="1333306000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1333304368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333306000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1333306000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333304368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CE29C0-1520-DF42-8285-484C085278F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,15 +1398,15 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40914</v>
       </c>
@@ -459,7 +1428,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40921</v>
       </c>
@@ -470,7 +1439,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40928</v>
       </c>
@@ -481,7 +1450,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40935</v>
       </c>
@@ -492,7 +1461,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40942</v>
       </c>
@@ -503,7 +1472,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40949</v>
       </c>
@@ -514,7 +1483,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>40956</v>
       </c>
@@ -525,7 +1494,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>40963</v>
       </c>
@@ -536,7 +1505,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>40970</v>
       </c>
@@ -547,7 +1516,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>40977</v>
       </c>
@@ -558,7 +1527,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>40984</v>
       </c>
@@ -569,7 +1538,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>40991</v>
       </c>
@@ -580,7 +1549,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>40998</v>
       </c>
@@ -591,7 +1560,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>41004</v>
       </c>
@@ -602,7 +1571,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>41012</v>
       </c>
@@ -615,5 +1584,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/StatsAssignment#4/DJIASP500.xlsx
+++ b/StatsAssignment#4/DJIASP500.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevorcardoza/Documents/GitHub/Statistics/StatsAssignment#4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4872C5-7D01-3B40-885C-DA3F30142E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C3EB07-C30C-6A42-8480-107EC03E566A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.0" hidden="1">Data!$A$2:$A$16</definedName>
@@ -27,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +47,81 @@
   </si>
   <si>
     <t>S&amp;P</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
 </sst>
 </file>
@@ -53,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +145,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,17 +169,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,8 +292,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1394,11 +1537,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA5BB9-39B2-3D47-99A1-D436EAB79C45}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.97395805184789919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.94859428675935509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.94464000112545932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9.6081058452101509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>22145.629260207432</v>
+      </c>
+      <c r="D12" s="4">
+        <v>22145.629260207432</v>
+      </c>
+      <c r="E12" s="4">
+        <v>239.89017855161859</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9.2918358395624979E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1200.1040731258988</v>
+      </c>
+      <c r="D13" s="4">
+        <v>92.315697932761452</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>23345.73333333333</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-669.02123824647447</v>
+      </c>
+      <c r="C17" s="4">
+        <v>130.73358151180096</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-5.1174398384097186</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.9761095642329129E-4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-951.4539700916929</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-386.58850640125604</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-951.4539700916929</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-386.58850640125604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.15726702317885133</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.0153866111067751E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>15.488388507253379</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9.2918358395624979E-10</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.13533092909058081</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.17920311726712185</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.13533092909058081</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.17920311726712185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="B2" sqref="B2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
